--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.875250666666667</v>
+        <v>0.9633910000000001</v>
       </c>
       <c r="H2">
-        <v>5.625752</v>
+        <v>2.890173</v>
       </c>
       <c r="I2">
-        <v>0.05374350189992752</v>
+        <v>0.03151356187552194</v>
       </c>
       <c r="J2">
-        <v>0.06468869298392142</v>
+        <v>0.03728198166870843</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N2">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O2">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P2">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q2">
-        <v>7.478355889448889</v>
+        <v>2.595942470168667</v>
       </c>
       <c r="R2">
-        <v>67.30520300504</v>
+        <v>23.36348223151801</v>
       </c>
       <c r="S2">
-        <v>0.00303359663334293</v>
+        <v>0.00121857361211902</v>
       </c>
       <c r="T2">
-        <v>0.003872306634455026</v>
+        <v>0.001529066211993684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.875250666666667</v>
+        <v>0.9633910000000001</v>
       </c>
       <c r="H3">
-        <v>5.625752</v>
+        <v>2.890173</v>
       </c>
       <c r="I3">
-        <v>0.05374350189992752</v>
+        <v>0.03151356187552194</v>
       </c>
       <c r="J3">
-        <v>0.06468869298392142</v>
+        <v>0.03728198166870843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P3">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q3">
-        <v>101.451002933896</v>
+        <v>52.11942323487902</v>
       </c>
       <c r="R3">
-        <v>913.0590264050642</v>
+        <v>469.0748091139111</v>
       </c>
       <c r="S3">
-        <v>0.04115362059510261</v>
+        <v>0.02446562455167196</v>
       </c>
       <c r="T3">
-        <v>0.05253151863062677</v>
+        <v>0.03069946656093425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.875250666666667</v>
+        <v>0.9633910000000001</v>
       </c>
       <c r="H4">
-        <v>5.625752</v>
+        <v>2.890173</v>
       </c>
       <c r="I4">
-        <v>0.05374350189992752</v>
+        <v>0.03151356187552194</v>
       </c>
       <c r="J4">
-        <v>0.06468869298392142</v>
+        <v>0.03728198166870843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N4">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O4">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P4">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q4">
-        <v>0.4847710498400001</v>
+        <v>0.420854468177</v>
       </c>
       <c r="R4">
-        <v>4.362939448560001</v>
+        <v>3.787690213593</v>
       </c>
       <c r="S4">
-        <v>0.0001966474779318261</v>
+        <v>0.0001975552830450649</v>
       </c>
       <c r="T4">
-        <v>0.00025101535420849</v>
+        <v>0.0002478923762182644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.875250666666667</v>
+        <v>0.9633910000000001</v>
       </c>
       <c r="H5">
-        <v>5.625752</v>
+        <v>2.890173</v>
       </c>
       <c r="I5">
-        <v>0.05374350189992752</v>
+        <v>0.03151356187552194</v>
       </c>
       <c r="J5">
-        <v>0.06468869298392142</v>
+        <v>0.03728198166870843</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N5">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O5">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P5">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q5">
-        <v>22.67361080465067</v>
+        <v>11.5169131044825</v>
       </c>
       <c r="R5">
-        <v>136.041664827904</v>
+        <v>69.101478626895</v>
       </c>
       <c r="S5">
-        <v>0.009197554973247606</v>
+        <v>0.005406208559497956</v>
       </c>
       <c r="T5">
-        <v>0.007826958656315943</v>
+        <v>0.004522473795650613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.875250666666667</v>
+        <v>0.9633910000000001</v>
       </c>
       <c r="H6">
-        <v>5.625752</v>
+        <v>2.890173</v>
       </c>
       <c r="I6">
-        <v>0.05374350189992752</v>
+        <v>0.03151356187552194</v>
       </c>
       <c r="J6">
-        <v>0.06468869298392142</v>
+        <v>0.03728198166870843</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N6">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O6">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P6">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q6">
-        <v>0.3995615347973334</v>
+        <v>0.480598197651</v>
       </c>
       <c r="R6">
-        <v>3.596053813176</v>
+        <v>4.325383778859001</v>
       </c>
       <c r="S6">
-        <v>0.0001620822203025496</v>
+        <v>0.0002255998691879402</v>
       </c>
       <c r="T6">
-        <v>0.00020689370831518</v>
+        <v>0.0002830827239116204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>44.203474</v>
       </c>
       <c r="I7">
-        <v>0.4222812326071957</v>
+        <v>0.4819811523434844</v>
       </c>
       <c r="J7">
-        <v>0.5082813743671517</v>
+        <v>0.5702056961161943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N7">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O7">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P7">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q7">
-        <v>58.76002179299778</v>
+        <v>39.70339335589822</v>
       </c>
       <c r="R7">
-        <v>528.84019613698</v>
+        <v>357.330540203084</v>
       </c>
       <c r="S7">
-        <v>0.02383601515112321</v>
+        <v>0.0186373573417194</v>
       </c>
       <c r="T7">
-        <v>0.03042604893286448</v>
+        <v>0.02338615665779914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>44.203474</v>
       </c>
       <c r="I8">
-        <v>0.4222812326071957</v>
+        <v>0.4819811523434844</v>
       </c>
       <c r="J8">
-        <v>0.5082813743671517</v>
+        <v>0.5702056961161943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P8">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q8">
         <v>797.1355243641021</v>
@@ -948,10 +948,10 @@
         <v>7174.219719276919</v>
       </c>
       <c r="S8">
-        <v>0.3233581924659108</v>
+        <v>0.3741871503067785</v>
       </c>
       <c r="T8">
-        <v>0.412758262001138</v>
+        <v>0.4695300495645508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>44.203474</v>
       </c>
       <c r="I9">
-        <v>0.4222812326071957</v>
+        <v>0.4819811523434844</v>
       </c>
       <c r="J9">
-        <v>0.5082813743671517</v>
+        <v>0.5702056961161943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N9">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O9">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P9">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q9">
-        <v>3.80901335458</v>
+        <v>6.436718335492666</v>
       </c>
       <c r="R9">
-        <v>34.28112019122</v>
+        <v>57.930465019434</v>
       </c>
       <c r="S9">
-        <v>0.001545127065310566</v>
+        <v>0.003021490345956856</v>
       </c>
       <c r="T9">
-        <v>0.001972314222766268</v>
+        <v>0.003791366193982945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>44.203474</v>
       </c>
       <c r="I10">
-        <v>0.4222812326071957</v>
+        <v>0.4819811523434844</v>
       </c>
       <c r="J10">
-        <v>0.5082813743671517</v>
+        <v>0.5702056961161943</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N10">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O10">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P10">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q10">
-        <v>178.1543810835414</v>
+        <v>176.144323877585</v>
       </c>
       <c r="R10">
-        <v>1068.926286501248</v>
+        <v>1056.86594326551</v>
       </c>
       <c r="S10">
-        <v>0.07226836201160684</v>
+        <v>0.08268473876766039</v>
       </c>
       <c r="T10">
-        <v>0.0614991139786355</v>
+        <v>0.06916854210516919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>44.203474</v>
       </c>
       <c r="I11">
-        <v>0.4222812326071957</v>
+        <v>0.4819811523434844</v>
       </c>
       <c r="J11">
-        <v>0.5082813743671517</v>
+        <v>0.5702056961161943</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N11">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O11">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P11">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q11">
-        <v>3.139492802884666</v>
+        <v>7.350463081038</v>
       </c>
       <c r="R11">
-        <v>28.255435225962</v>
+        <v>66.15416772934201</v>
       </c>
       <c r="S11">
-        <v>0.001273535913244314</v>
+        <v>0.003450415581369183</v>
       </c>
       <c r="T11">
-        <v>0.001625635231747443</v>
+        <v>0.004329581594692251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.23419</v>
+        <v>0.2953596666666667</v>
       </c>
       <c r="H12">
-        <v>0.7025699999999999</v>
+        <v>0.8860790000000001</v>
       </c>
       <c r="I12">
-        <v>0.006711737760539759</v>
+        <v>0.009661534237950671</v>
       </c>
       <c r="J12">
-        <v>0.008078623983018387</v>
+        <v>0.01143003586118461</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N12">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O12">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P12">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q12">
-        <v>0.9339317654333332</v>
+        <v>0.7958728103904446</v>
       </c>
       <c r="R12">
-        <v>8.4053858889</v>
+        <v>7.162855293514001</v>
       </c>
       <c r="S12">
-        <v>0.0003788496163157818</v>
+        <v>0.0003735944137782786</v>
       </c>
       <c r="T12">
-        <v>0.0004835916108938087</v>
+        <v>0.0004687862837474268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.23419</v>
+        <v>0.2953596666666667</v>
       </c>
       <c r="H13">
-        <v>0.7025699999999999</v>
+        <v>0.8860790000000001</v>
       </c>
       <c r="I13">
-        <v>0.006711737760539759</v>
+        <v>0.009661534237950671</v>
       </c>
       <c r="J13">
-        <v>0.008078623983018387</v>
+        <v>0.01143003586118461</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>162.299907</v>
       </c>
       <c r="O13">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P13">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q13">
-        <v>12.66967174011</v>
+        <v>15.978948810517</v>
       </c>
       <c r="R13">
-        <v>114.02704566099</v>
+        <v>143.810539294653</v>
       </c>
       <c r="S13">
-        <v>0.00513945499579456</v>
+        <v>0.007500753808550884</v>
       </c>
       <c r="T13">
-        <v>0.006560379669121469</v>
+        <v>0.009411946146769091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.23419</v>
+        <v>0.2953596666666667</v>
       </c>
       <c r="H14">
-        <v>0.7025699999999999</v>
+        <v>0.8860790000000001</v>
       </c>
       <c r="I14">
-        <v>0.006711737760539759</v>
+        <v>0.009661534237950671</v>
       </c>
       <c r="J14">
-        <v>0.008078623983018387</v>
+        <v>0.01143003586118461</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N14">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O14">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P14">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q14">
-        <v>0.0605404569</v>
+        <v>0.1290269843043333</v>
       </c>
       <c r="R14">
-        <v>0.5448641121</v>
+        <v>1.161242858739</v>
       </c>
       <c r="S14">
-        <v>2.455824902529707E-05</v>
+        <v>6.056716592580722E-05</v>
       </c>
       <c r="T14">
-        <v>3.13479615536303E-05</v>
+        <v>7.599968196613267E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.23419</v>
+        <v>0.2953596666666667</v>
       </c>
       <c r="H15">
-        <v>0.7025699999999999</v>
+        <v>0.8860790000000001</v>
       </c>
       <c r="I15">
-        <v>0.006711737760539759</v>
+        <v>0.009661534237950671</v>
       </c>
       <c r="J15">
-        <v>0.008078623983018387</v>
+        <v>0.01143003586118461</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N15">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O15">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P15">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q15">
-        <v>2.83158566944</v>
+        <v>3.5308941183475</v>
       </c>
       <c r="R15">
-        <v>16.98951401664</v>
+        <v>21.185364710085</v>
       </c>
       <c r="S15">
-        <v>0.001148633320052958</v>
+        <v>0.001657453679828643</v>
       </c>
       <c r="T15">
-        <v>0.0009774668956555302</v>
+        <v>0.001386515291083371</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.23419</v>
+        <v>0.2953596666666667</v>
       </c>
       <c r="H16">
-        <v>0.7025699999999999</v>
+        <v>0.8860790000000001</v>
       </c>
       <c r="I16">
-        <v>0.006711737760539759</v>
+        <v>0.009661534237950671</v>
       </c>
       <c r="J16">
-        <v>0.008078623983018387</v>
+        <v>0.01143003586118461</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N16">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O16">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P16">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q16">
-        <v>0.04989909749</v>
+        <v>0.147343418673</v>
       </c>
       <c r="R16">
-        <v>0.44909187741</v>
+        <v>1.326090768057</v>
       </c>
       <c r="S16">
-        <v>2.02415793511627E-05</v>
+        <v>6.916516986705671E-05</v>
       </c>
       <c r="T16">
-        <v>2.583784579394825E-05</v>
+        <v>8.678845761858708E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.7112655</v>
+        <v>14.1900595</v>
       </c>
       <c r="H17">
-        <v>35.42253100000001</v>
+        <v>28.380119</v>
       </c>
       <c r="I17">
-        <v>0.5075937035880914</v>
+        <v>0.4641721980697224</v>
       </c>
       <c r="J17">
-        <v>0.407312166013084</v>
+        <v>0.3660912603895213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N17">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O17">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P17">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q17">
-        <v>70.63116895031168</v>
+        <v>38.23637350802567</v>
       </c>
       <c r="R17">
-        <v>423.7870137018701</v>
+        <v>229.418241048154</v>
       </c>
       <c r="S17">
-        <v>0.0286515484826079</v>
+        <v>0.01794871662813833</v>
       </c>
       <c r="T17">
-        <v>0.02438196738862446</v>
+        <v>0.01501470017720738</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.7112655</v>
+        <v>14.1900595</v>
       </c>
       <c r="H18">
-        <v>35.42253100000001</v>
+        <v>28.380119</v>
       </c>
       <c r="I18">
-        <v>0.5075937035880914</v>
+        <v>0.4641721980697224</v>
       </c>
       <c r="J18">
-        <v>0.407312166013084</v>
+        <v>0.3660912603895213</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>162.299907</v>
       </c>
       <c r="O18">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P18">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q18">
-        <v>958.1789145007698</v>
+        <v>767.6817790581556</v>
       </c>
       <c r="R18">
-        <v>5749.073487004619</v>
+        <v>4606.090674348934</v>
       </c>
       <c r="S18">
-        <v>0.388685477415</v>
+        <v>0.3603611286516958</v>
       </c>
       <c r="T18">
-        <v>0.3307645532846906</v>
+        <v>0.3014541047320817</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.7112655</v>
+        <v>14.1900595</v>
       </c>
       <c r="H19">
-        <v>35.42253100000001</v>
+        <v>28.380119</v>
       </c>
       <c r="I19">
-        <v>0.5075937035880914</v>
+        <v>0.4641721980697224</v>
       </c>
       <c r="J19">
-        <v>0.407312166013084</v>
+        <v>0.3660912603895213</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N19">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O19">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P19">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q19">
-        <v>4.578539244405001</v>
+        <v>6.1988849223965</v>
       </c>
       <c r="R19">
-        <v>27.47123546643001</v>
+        <v>37.193309534379</v>
       </c>
       <c r="S19">
-        <v>0.001857285403741205</v>
+        <v>0.00290984784054326</v>
       </c>
       <c r="T19">
-        <v>0.001580517442988283</v>
+        <v>0.002434184782802661</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.7112655</v>
+        <v>14.1900595</v>
       </c>
       <c r="H20">
-        <v>35.42253100000001</v>
+        <v>28.380119</v>
       </c>
       <c r="I20">
-        <v>0.5075937035880914</v>
+        <v>0.4641721980697224</v>
       </c>
       <c r="J20">
-        <v>0.407312166013084</v>
+        <v>0.3660912603895213</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N20">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O20">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P20">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q20">
-        <v>214.1464860901281</v>
+        <v>169.6358822211712</v>
       </c>
       <c r="R20">
-        <v>856.5859443605123</v>
+        <v>678.543528884685</v>
       </c>
       <c r="S20">
-        <v>0.08686856694822333</v>
+        <v>0.07962958043897575</v>
       </c>
       <c r="T20">
-        <v>0.04928242226800432</v>
+        <v>0.04440853350126309</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.7112655</v>
+        <v>14.1900595</v>
       </c>
       <c r="H21">
-        <v>35.42253100000001</v>
+        <v>28.380119</v>
       </c>
       <c r="I21">
-        <v>0.5075937035880914</v>
+        <v>0.4641721980697224</v>
       </c>
       <c r="J21">
-        <v>0.407312166013084</v>
+        <v>0.3660912603895213</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N21">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O21">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P21">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q21">
-        <v>3.773757051350501</v>
+        <v>7.0788672722295</v>
       </c>
       <c r="R21">
-        <v>22.64254230810301</v>
+        <v>42.473203633377</v>
       </c>
       <c r="S21">
-        <v>0.001530825338518982</v>
+        <v>0.003322924510369194</v>
       </c>
       <c r="T21">
-        <v>0.001302705628776281</v>
+        <v>0.002779737196166434</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3374053333333333</v>
+        <v>0.387378</v>
       </c>
       <c r="H22">
-        <v>1.012216</v>
+        <v>1.162134</v>
       </c>
       <c r="I22">
-        <v>0.009669824144245432</v>
+        <v>0.01267155347332074</v>
       </c>
       <c r="J22">
-        <v>0.01163914265282455</v>
+        <v>0.01499102596439134</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.987923333333333</v>
+        <v>2.694588666666667</v>
       </c>
       <c r="N22">
-        <v>11.96377</v>
+        <v>8.083766000000001</v>
       </c>
       <c r="O22">
-        <v>0.05644583114423032</v>
+        <v>0.03866822852117973</v>
       </c>
       <c r="P22">
-        <v>0.05986064110798311</v>
+        <v>0.04101354444034455</v>
       </c>
       <c r="Q22">
-        <v>1.345546601591111</v>
+        <v>1.043824368516</v>
       </c>
       <c r="R22">
-        <v>12.10991941432</v>
+        <v>9.394419316644001</v>
       </c>
       <c r="S22">
-        <v>0.000545821260840479</v>
+        <v>0.000489986525424715</v>
       </c>
       <c r="T22">
-        <v>0.0006967265411453486</v>
+        <v>0.0006148351095969231</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3374053333333333</v>
+        <v>0.387378</v>
       </c>
       <c r="H23">
-        <v>1.012216</v>
+        <v>1.162134</v>
       </c>
       <c r="I23">
-        <v>0.009669824144245432</v>
+        <v>0.01267155347332074</v>
       </c>
       <c r="J23">
-        <v>0.01163914265282455</v>
+        <v>0.01499102596439134</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>162.299907</v>
       </c>
       <c r="O23">
-        <v>0.7657413294677419</v>
+        <v>0.7763522463221002</v>
       </c>
       <c r="P23">
-        <v>0.812066471086124</v>
+        <v>0.8234397740370376</v>
       </c>
       <c r="Q23">
-        <v>18.253618073768</v>
+        <v>20.957137791282</v>
       </c>
       <c r="R23">
-        <v>164.282562663912</v>
+        <v>188.614240121538</v>
       </c>
       <c r="S23">
-        <v>0.007404583995933766</v>
+        <v>0.009837589003403166</v>
       </c>
       <c r="T23">
-        <v>0.009451757500547216</v>
+        <v>0.01234420703270177</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3374053333333333</v>
+        <v>0.387378</v>
       </c>
       <c r="H24">
-        <v>1.012216</v>
+        <v>1.162134</v>
       </c>
       <c r="I24">
-        <v>0.009669824144245432</v>
+        <v>0.01267155347332074</v>
       </c>
       <c r="J24">
-        <v>0.01163914265282455</v>
+        <v>0.01499102596439134</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.25851</v>
+        <v>0.436847</v>
       </c>
       <c r="N24">
-        <v>0.7755300000000001</v>
+        <v>1.310541</v>
       </c>
       <c r="O24">
-        <v>0.003659000083358753</v>
+        <v>0.006268897302862972</v>
       </c>
       <c r="P24">
-        <v>0.003880359033855896</v>
+        <v>0.006649120168049592</v>
       </c>
       <c r="Q24">
-        <v>0.08722265272</v>
+        <v>0.169224917166</v>
       </c>
       <c r="R24">
-        <v>0.7850038744800001</v>
+        <v>1.523024254494</v>
       </c>
       <c r="S24">
-        <v>3.538188734985851E-05</v>
+        <v>7.94366673919843E-05</v>
       </c>
       <c r="T24">
-        <v>4.51640523392252E-05</v>
+        <v>9.967713307958953E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3374053333333333</v>
+        <v>0.387378</v>
       </c>
       <c r="H25">
-        <v>1.012216</v>
+        <v>1.162134</v>
       </c>
       <c r="I25">
-        <v>0.009669824144245432</v>
+        <v>0.01267155347332074</v>
       </c>
       <c r="J25">
-        <v>0.01163914265282455</v>
+        <v>0.01499102596439134</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.090976</v>
+        <v>11.9545575</v>
       </c>
       <c r="N25">
-        <v>24.181952</v>
+        <v>23.909115</v>
       </c>
       <c r="O25">
-        <v>0.1711379915356802</v>
+        <v>0.1715518093718632</v>
       </c>
       <c r="P25">
-        <v>0.1209942309123691</v>
+        <v>0.1213045442658544</v>
       </c>
       <c r="Q25">
-        <v>4.079559787605334</v>
+        <v>4.630932575235</v>
       </c>
       <c r="R25">
-        <v>24.477358725632</v>
+        <v>27.78559545141</v>
       </c>
       <c r="S25">
-        <v>0.00165487428254939</v>
+        <v>0.00217382792590049</v>
       </c>
       <c r="T25">
-        <v>0.001408269113757858</v>
+        <v>0.001818479572688081</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3374053333333333</v>
+        <v>0.387378</v>
       </c>
       <c r="H26">
-        <v>1.012216</v>
+        <v>1.162134</v>
       </c>
       <c r="I26">
-        <v>0.009669824144245432</v>
+        <v>0.01267155347332074</v>
       </c>
       <c r="J26">
-        <v>0.01163914265282455</v>
+        <v>0.01499102596439134</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.213071</v>
+        <v>0.498861</v>
       </c>
       <c r="N26">
-        <v>0.639213</v>
+        <v>1.496583</v>
       </c>
       <c r="O26">
-        <v>0.003015847768988947</v>
+        <v>0.007158818481993754</v>
       </c>
       <c r="P26">
-        <v>0.003198297859667748</v>
+        <v>0.007593017088713869</v>
       </c>
       <c r="Q26">
-        <v>0.07189129177866667</v>
+        <v>0.193247776458</v>
       </c>
       <c r="R26">
-        <v>0.6470216260080001</v>
+        <v>1.739229988122</v>
       </c>
       <c r="S26">
-        <v>2.916271757193804E-05</v>
+        <v>9.071335120038064E-05</v>
       </c>
       <c r="T26">
-        <v>3.722544503489634E-05</v>
+        <v>0.0001138271163249767</v>
       </c>
     </row>
   </sheetData>
